--- a/exportorv2/example/Sample.xlsx
+++ b/exportorv2/example/Sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\wukong\server\src\github.com\davyxu\tabtoy\exportorv2\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -1408,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/exportorv2/example/Sample.xlsx
+++ b/exportorv2/example/Sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -170,32 +170,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-多个 repeated 结构的数据会被合并到一个字段中</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
@@ -421,155 +395,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>字符串结构</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>黑猫警长</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>邋遢大王</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>葫芦\n娃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>舒"克"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>贝
 塔</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID列表</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>自定义别名之中文字段</t>
+    <t>string</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActorType</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeated int32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>技能ID列表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
+    <t>特性</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>NumericalRate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeated Prop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeated int32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExType</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrStruct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>float</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActorType</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象类型</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ActorType</t>
+    <t>int32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举值</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeated int32</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>特性</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeated Prop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>NumericalRate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeated Prop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeated int32</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackRate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExType</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>StrStruct</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActorType</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举值</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -615,173 +581,173 @@
       </rPr>
       <t>7</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default: "100"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ItemID</t>
+    <t>BuffID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleStruct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量:100 攻击速率:1.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单结构解析</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectType</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldType</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一ID</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>int32</t>
+    <t>名称</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Default: "100"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListSpliter: ";"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackRate:3.5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleStruct</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量:100 攻击速率:1.2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>单结构解析</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ObjectType</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldType</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meta</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldName</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>图标ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>攻击率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MakeIndex:true 自定义tag: "支持go的struct tag"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Alias</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>别名</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>血量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>攻击速率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>额外类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Default</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TableName: "Sample" Package: "table"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>唐僧</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>孙悟空</t>
   </si>
   <si>
     <t>沙僧</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>猪八戒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量: 3  额外类型:唐僧</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: "|"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量: 3  额外类型:唐僧 | 血量:10  额外类型:孙悟空</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,13 +755,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -925,27 +884,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1406,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1422,146 +1378,139 @@
     <col min="8" max="8" width="17.75" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24" style="2" customWidth="1"/>
-    <col min="12" max="12" width="32.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="43.875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1"/>
+      <c r="K3" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -1572,23 +1521,20 @@
         <v>0.6</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="H5" s="11" t="s">
-        <v>73</v>
+      <c r="H5" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="K5" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
@@ -1605,14 +1551,14 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>76</v>
+      <c r="H6" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
@@ -1623,12 +1569,11 @@
         <v>0.7</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="H7" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="7"/>
+      <c r="H7" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
@@ -1639,10 +1584,10 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>
@@ -1653,12 +1598,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="H9" s="11" t="s">
-        <v>76</v>
+      <c r="H9" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1670,7 +1615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1686,73 +1631,73 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1760,34 +1705,34 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/exportorv2/example/Sample.xlsx
+++ b/exportorv2/example/Sample.xlsx
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0">
+    <comment ref="L5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +395,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>类型</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -740,6 +740,30 @@
   </si>
   <si>
     <t>血量: 3  额外类型:唐僧 | 血量:10  额外类型:孙悟空</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 100 Y:89</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vec2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1362,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1375,14 +1399,15 @@
     <col min="3" max="3" width="20.125" style="2" customWidth="1"/>
     <col min="4" max="5" width="19.5" style="2" customWidth="1"/>
     <col min="6" max="7" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="43.875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="15.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="43.875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1405,19 +1430,22 @@
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1440,19 +1468,22 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -1467,15 +1498,16 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
@@ -1497,20 +1529,21 @@
       <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -1522,19 +1555,22 @@
       </c>
       <c r="E5" s="4"/>
       <c r="H5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
@@ -1551,14 +1587,14 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
@@ -1569,11 +1605,11 @@
         <v>0.7</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
@@ -1583,11 +1619,11 @@
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>
@@ -1598,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>73</v>
       </c>
     </row>

--- a/exportorv2/example/Sample.xlsx
+++ b/exportorv2/example/Sample.xlsx
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1554,6 +1554,9 @@
         <v>0.6</v>
       </c>
       <c r="E5" s="4"/>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
       <c r="H5" s="10" t="s">
         <v>77</v>
       </c>
@@ -1652,7 +1655,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/exportorv2/example/Sample.xlsx
+++ b/exportorv2/example/Sample.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -398,144 +398,144 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>字符串结构</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>黑猫警长</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>邋遢大王</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>葫芦\n娃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>舒"克"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>贝
 塔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID列表</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>技能ID列表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActorType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeated int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>特性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumericalRate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeated Prop</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeated int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrStruct</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>float</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActorType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象类型</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ActorType</t>
+    <t>int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举值</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeated int32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>特性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>NumericalRate</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeated Prop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeated int32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackRate</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExType</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>StrStruct</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActorType</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -581,170 +581,166 @@
       </rPr>
       <t>7</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default: "100"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ItemID</t>
+    <t>BuffID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleStruct</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单结构解析</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>int32</t>
+    <t>名称</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Default: "100"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListSpliter: ";"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleStruct</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量:100 攻击速率:1.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单结构解析</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ObjectType</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldType</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meta</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>图标ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>攻击率</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MakeIndex:true 自定义tag: "支持go的struct tag"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Alias</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>别名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>血量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>攻击速率</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>额外类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Default</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TableName: "Sample" Package: "table"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>唐僧</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>孙悟空</t>
   </si>
   <si>
     <t>沙僧</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>猪八戒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ListSpliter: "|"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>血量: 3  额外类型:唐僧 | 血量:10  额外类型:孙悟空</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Pos</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -760,18 +756,22 @@
       </rPr>
       <t>: 100 Y:89</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Vec2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量:100攻击速率:1.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,13 +779,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -908,27 +901,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1388,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1430,7 +1420,7 @@
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -1468,7 +1458,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
@@ -1485,10 +1475,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1503,22 +1493,22 @@
         <v>43</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="10" t="s">
-        <v>74</v>
+      <c r="L3" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>39</v>
@@ -1537,7 +1527,7 @@
         <v>9</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>3</v>
@@ -1557,20 +1547,20 @@
       <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>70</v>
+      <c r="H5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>35</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -1590,8 +1580,8 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>73</v>
+      <c r="I6" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -1608,8 +1598,8 @@
         <v>0.7</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="I7" s="10" t="s">
-        <v>72</v>
+      <c r="I7" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.15">
@@ -1623,7 +1613,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="I8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -1637,12 +1627,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="I9" s="10" t="s">
-        <v>73</v>
+      <c r="I9" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1670,33 +1660,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1713,10 +1703,10 @@
         <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>16</v>
@@ -1736,7 +1726,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1753,7 +1743,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1767,11 +1757,11 @@
         <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/exportorv2/example/Sample.xlsx
+++ b/exportorv2/example/Sample.xlsx
@@ -398,144 +398,144 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>字符串结构</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>黑猫警长</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>邋遢大王</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>葫芦\n娃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>舒"克"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>贝
 塔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>技能ID列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ActorType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>int64</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>repeated int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>字段名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>特性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>NumericalRate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BuffID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>repeated Prop</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>repeated int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BuffID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SkillID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BuffID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Prop</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AttackRate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ExType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>StrStruct</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>字段类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ActorType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>对象类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>枚举值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -581,166 +581,162 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ItemID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Default: "100"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>物品id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>IconID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ListSpliter: ";"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BuffID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SingleStruct</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Prop</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>单结构解析</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ObjectType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>FieldType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Value</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Meta</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>FieldName</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>唯一ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>图标ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>攻击率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MakeIndex:true 自定义tag: "支持go的struct tag"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Alias</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>别名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>血量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>攻击速率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>额外类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Default</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableName: "Sample" Package: "table"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>唐僧</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>孙悟空</t>
   </si>
   <si>
     <t>沙僧</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>猪八戒</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ListSpliter: "|"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>血量: 3  额外类型:唐僧 | 血量:10  额外类型:孙悟空</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Pos</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -756,22 +752,26 @@
       </rPr>
       <t>: 100 Y:89</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Vec2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>血量:100攻击速率:1.2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "Sample" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,6 +779,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -905,20 +912,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -927,9 +937,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1420,7 +1427,7 @@
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -1458,7 +1465,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
@@ -1494,7 +1501,7 @@
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -1548,19 +1555,19 @@
         <v>10</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>35</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -1581,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -1599,7 +1606,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="I7" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.15">
@@ -1613,7 +1620,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="I8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -1628,11 +1635,11 @@
       </c>
       <c r="E9" s="4"/>
       <c r="I9" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1644,9 +1651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1660,7 +1665,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -1761,7 +1766,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/exportorv2/example/Sample.xlsx
+++ b/exportorv2/example/Sample.xlsx
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0">
+    <comment ref="M5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +395,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>类型</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -764,6 +764,46 @@
   </si>
   <si>
     <t>TableName: "Sample" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackParam</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackParam</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击参数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻击值:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -908,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,6 +977,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1383,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1399,12 +1442,12 @@
     <col min="8" max="8" width="15.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="43.875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="11" max="12" width="21.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="43.875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1436,13 +1479,16 @@
         <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1474,13 +1520,16 @@
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
@@ -1500,11 +1549,12 @@
         <v>43</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="1"/>
+      <c r="M3" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>55</v>
       </c>
@@ -1534,13 +1584,16 @@
         <v>9</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -1563,14 +1616,17 @@
       <c r="J5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
@@ -1594,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
@@ -1609,7 +1665,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
@@ -1623,7 +1679,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>
@@ -1649,9 +1705,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1765,6 +1823,20 @@
         <v>65</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
